--- a/SAPUCAIA_DO_SUL.xlsx
+++ b/SAPUCAIA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E0467C-DBC8-4DD8-A123-FD866E4A8257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15B0B2D-66F9-42CD-B7AE-E53BA39A149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,7 +1218,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2A4FB8C2-204F-49B5-A786-2DB06B2E051C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8E604A0E-740A-4370-ACA1-B22959B1B428}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,10 +1248,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE39849-4687-4B01-A166-84EE55F28AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6CED2E-53E9-472F-A675-102C5A09E65B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1289,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADDC15C-3481-4A1C-A547-0BD35867E17B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8DF8C6-0DDC-4653-AF8B-5F64FE9326B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1352,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B431471A-38D7-4EAD-8ACA-5B79E4872610}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7F4960-4D45-418C-871B-A4D3B1897779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E34584-E01A-A9A3-7C14-99B6019C1666}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0799FE58-AA11-1D35-7FB9-10ABB8E838D7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1420,7 +1420,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B026063-F4CA-A8DF-D2DF-256D236D25B5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D554A3-7CDF-29AB-2E27-50DE37377C65}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1439,7 +1439,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEF70A3-CE9E-ABD3-D1C2-496114A117B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1563313-B485-10CC-F71F-DF8F28A221AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1470,7 +1470,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23345E9B-9011-A38E-73C5-5438FEE44ED3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91977B8-3BDE-1A86-A24F-544E6A562285}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,7 +1501,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32090A5-6A01-D255-B70F-2A83D96BE150}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D917FF-CF74-294C-F7FF-D6BD1DF9CB1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1544,7 +1544,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45810781-B776-444A-B687-DBD8254BE941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD65F677-67E3-4387-9143-30C4A4013A61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1582,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00EA0DA-1CF7-4C6E-B1C6-8AE577485981}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F6AC47-F3AB-48C4-A85C-B2607939842F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1625,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0409D160-2F98-4ACD-94C9-D1E7C2195E2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8449BDA-6072-4D9D-B301-D71E8D89C693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8790F25B-4974-4741-8A08-922F6F013583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7609E0EB-3BBE-497B-8A53-C6125618CCED}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAPUCAIA_DO_SUL.xlsx
+++ b/SAPUCAIA_DO_SUL.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15B0B2D-66F9-42CD-B7AE-E53BA39A149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B339AC89-CBB5-4EA4-B830-E876471F910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="306">
   <si>
     <t>COMARCA</t>
   </si>
@@ -944,15 +943,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SAPUCAIA DO SUL</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,27 +1188,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{8E604A0E-740A-4370-ACA1-B22959B1B428}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{06B5C542-A53E-47BA-9320-813CC2189E35}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,10 +1223,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6CED2E-53E9-472F-A675-102C5A09E65B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848F6070-9AA2-4CF7-A2ED-EE761FD5D13A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1264,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8DF8C6-0DDC-4653-AF8B-5F64FE9326B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60EF16A-10D5-4D5A-B77F-95A8A1F32EA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7F4960-4D45-418C-871B-A4D3B1897779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0905856-5332-4B77-857F-8155496EA6C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1346,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0799FE58-AA11-1D35-7FB9-10ABB8E838D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3178366A-D719-D8DB-E753-D197C2B01794}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1420,7 +1395,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D554A3-7CDF-29AB-2E27-50DE37377C65}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD34C3B-EC8F-3C12-B324-9D0E03DEF9AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1439,7 +1414,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1563313-B485-10CC-F71F-DF8F28A221AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E55BEE6-9446-A2DA-42F5-474F02C4C600}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1470,7 +1445,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91977B8-3BDE-1A86-A24F-544E6A562285}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FD720C-86CD-D0B5-0818-757DB9121728}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,7 +1476,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D917FF-CF74-294C-F7FF-D6BD1DF9CB1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA94DB09-F061-C019-A1FB-103D3614E011}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1544,7 +1519,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD65F677-67E3-4387-9143-30C4A4013A61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B253CE9-D40F-4458-B251-434026A775CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1557,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F6AC47-F3AB-48C4-A85C-B2607939842F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89039AE-441A-416C-B06E-46C1632D1C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1600,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8449BDA-6072-4D9D-B301-D71E8D89C693}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A5D676-45D1-4A9D-8B22-3EE1C3389DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7609E0EB-3BBE-497B-8A53-C6125618CCED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7D32B2-FB85-4FB8-A68B-46633F0A9ED7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1950,98 +1925,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5572,52 +5547,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="31">
-        <v>53</v>
-      </c>
-      <c r="C2" s="29">
-        <v>3.504827403782568E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAPUCAIA_DO_SUL.xlsx
+++ b/SAPUCAIA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B339AC89-CBB5-4EA4-B830-E876471F910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6946091-236D-4B28-AB97-30D7D22F6B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1193,7 +1193,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{06B5C542-A53E-47BA-9320-813CC2189E35}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{BD13BB01-272A-4635-9662-054970A646CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,10 +1223,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848F6070-9AA2-4CF7-A2ED-EE761FD5D13A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC72A70E-B58A-4AAF-8D49-C0442BF277BA}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1264,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60EF16A-10D5-4D5A-B77F-95A8A1F32EA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E65880-857E-463E-886B-39C1AC59CDA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0905856-5332-4B77-857F-8155496EA6C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6390DFC-F7D2-4D32-B8F8-CDB8FDE7137A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1346,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3178366A-D719-D8DB-E753-D197C2B01794}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639AAB6D-3FA2-E506-4568-B0EFAED8C080}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1395,7 +1395,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD34C3B-EC8F-3C12-B324-9D0E03DEF9AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC72058B-7081-0D6C-1143-2A94588B80F2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E55BEE6-9446-A2DA-42F5-474F02C4C600}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E965F609-123A-47A7-040A-5F335542A81D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1445,7 +1445,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FD720C-86CD-D0B5-0818-757DB9121728}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC59FF9-DCFF-0255-CF4D-7C1FA2E4185F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA94DB09-F061-C019-A1FB-103D3614E011}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC829156-98AE-D17A-451D-D0D4CDD9CB40}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1519,7 +1519,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B253CE9-D40F-4458-B251-434026A775CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756104CE-8EC7-4C2C-BD13-32BB7EA0FD7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1557,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89039AE-441A-416C-B06E-46C1632D1C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B6EF40-BFD0-457E-8D15-6439A2332B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,50 +1582,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A5D676-45D1-4A9D-8B22-3EE1C3389DF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1913,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7D32B2-FB85-4FB8-A68B-46633F0A9ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7791574-5FE8-46F5-9CD8-53F110CD160F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
